--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H2">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.83357903844139</v>
+        <v>10.03755233333333</v>
       </c>
       <c r="N2">
-        <v>2.83357903844139</v>
+        <v>30.112657</v>
       </c>
       <c r="O2">
-        <v>0.2774652000515115</v>
+        <v>0.5678353343629902</v>
       </c>
       <c r="P2">
-        <v>0.2774652000515115</v>
+        <v>0.5678353343629902</v>
       </c>
       <c r="Q2">
-        <v>3.742608432915851</v>
+        <v>20.90474517137522</v>
       </c>
       <c r="R2">
-        <v>3.742608432915851</v>
+        <v>188.142706542377</v>
       </c>
       <c r="S2">
-        <v>0.008492833905391715</v>
+        <v>0.02681261851036328</v>
       </c>
       <c r="T2">
-        <v>0.008492833905391715</v>
+        <v>0.02681261851036327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H3">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.64137962261069</v>
+        <v>5.808562999999999</v>
       </c>
       <c r="N3">
-        <v>5.64137962261069</v>
+        <v>17.425689</v>
       </c>
       <c r="O3">
-        <v>0.5524061634840373</v>
+        <v>0.3285967737692652</v>
       </c>
       <c r="P3">
-        <v>0.5524061634840373</v>
+        <v>0.3285967737692652</v>
       </c>
       <c r="Q3">
-        <v>7.451168526598035</v>
+        <v>12.09722503001433</v>
       </c>
       <c r="R3">
-        <v>7.451168526598035</v>
+        <v>108.875025270129</v>
       </c>
       <c r="S3">
-        <v>0.01690840434733297</v>
+        <v>0.01551601213527035</v>
       </c>
       <c r="T3">
-        <v>0.01690840434733297</v>
+        <v>0.01551601213527035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H4">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I4">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J4">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.73741765826773</v>
+        <v>1.830756333333333</v>
       </c>
       <c r="N4">
-        <v>1.73741765826773</v>
+        <v>5.492269</v>
       </c>
       <c r="O4">
-        <v>0.1701286364644512</v>
+        <v>0.1035678918677447</v>
       </c>
       <c r="P4">
-        <v>0.1701286364644512</v>
+        <v>0.1035678918677447</v>
       </c>
       <c r="Q4">
-        <v>2.294791813150341</v>
+        <v>3.812831390389889</v>
       </c>
       <c r="R4">
-        <v>2.294791813150341</v>
+        <v>34.315482513509</v>
       </c>
       <c r="S4">
-        <v>0.005207407097449017</v>
+        <v>0.004890372624816682</v>
       </c>
       <c r="T4">
-        <v>0.005207407097449017</v>
+        <v>0.00489037262481668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H5">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.83357903844139</v>
+        <v>10.03755233333333</v>
       </c>
       <c r="N5">
-        <v>2.83357903844139</v>
+        <v>30.112657</v>
       </c>
       <c r="O5">
-        <v>0.2774652000515115</v>
+        <v>0.5678353343629902</v>
       </c>
       <c r="P5">
-        <v>0.2774652000515115</v>
+        <v>0.5678353343629902</v>
       </c>
       <c r="Q5">
-        <v>105.2127468667964</v>
+        <v>374.2222343528466</v>
       </c>
       <c r="R5">
-        <v>105.2127468667964</v>
+        <v>3368.000109175619</v>
       </c>
       <c r="S5">
-        <v>0.2387517689563798</v>
+        <v>0.479980881160799</v>
       </c>
       <c r="T5">
-        <v>0.2387517689563798</v>
+        <v>0.479980881160799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H6">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J6">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.64137962261069</v>
+        <v>5.808562999999999</v>
       </c>
       <c r="N6">
-        <v>5.64137962261069</v>
+        <v>17.425689</v>
       </c>
       <c r="O6">
-        <v>0.5524061634840373</v>
+        <v>0.3285967737692652</v>
       </c>
       <c r="P6">
-        <v>0.5524061634840373</v>
+        <v>0.3285967737692652</v>
       </c>
       <c r="Q6">
-        <v>209.4683219211422</v>
+        <v>216.55612364986</v>
       </c>
       <c r="R6">
-        <v>209.4683219211422</v>
+        <v>1949.00511284874</v>
       </c>
       <c r="S6">
-        <v>0.4753314963092164</v>
+        <v>0.2777568768194066</v>
       </c>
       <c r="T6">
-        <v>0.4753314963092164</v>
+        <v>0.2777568768194066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H7">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J7">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.73741765826773</v>
+        <v>1.830756333333333</v>
       </c>
       <c r="N7">
-        <v>1.73741765826773</v>
+        <v>5.492269</v>
       </c>
       <c r="O7">
-        <v>0.1701286364644512</v>
+        <v>0.1035678918677447</v>
       </c>
       <c r="P7">
-        <v>0.1701286364644512</v>
+        <v>0.1035678918677447</v>
       </c>
       <c r="Q7">
-        <v>64.51151769592884</v>
+        <v>68.25466038572667</v>
       </c>
       <c r="R7">
-        <v>64.51151769592884</v>
+        <v>614.29194347154</v>
       </c>
       <c r="S7">
-        <v>0.1463913777240668</v>
+        <v>0.08754405545123901</v>
       </c>
       <c r="T7">
-        <v>0.1463913777240668</v>
+        <v>0.08754405545123901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H8">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I8">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J8">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.83357903844139</v>
+        <v>10.03755233333333</v>
       </c>
       <c r="N8">
-        <v>2.83357903844139</v>
+        <v>30.112657</v>
       </c>
       <c r="O8">
-        <v>0.2774652000515115</v>
+        <v>0.5678353343629902</v>
       </c>
       <c r="P8">
-        <v>0.2774652000515115</v>
+        <v>0.5678353343629902</v>
       </c>
       <c r="Q8">
-        <v>13.31756433129692</v>
+        <v>47.59192014508633</v>
       </c>
       <c r="R8">
-        <v>13.31756433129692</v>
+        <v>428.327281305777</v>
       </c>
       <c r="S8">
-        <v>0.03022059718973995</v>
+        <v>0.06104183469182784</v>
       </c>
       <c r="T8">
-        <v>0.03022059718973995</v>
+        <v>0.06104183469182783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H9">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I9">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J9">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.64137962261069</v>
+        <v>5.808562999999999</v>
       </c>
       <c r="N9">
-        <v>5.64137962261069</v>
+        <v>17.425689</v>
       </c>
       <c r="O9">
-        <v>0.5524061634840373</v>
+        <v>0.3285967737692652</v>
       </c>
       <c r="P9">
-        <v>0.5524061634840373</v>
+        <v>0.3285967737692652</v>
       </c>
       <c r="Q9">
-        <v>26.51397226692866</v>
+        <v>27.540645096881</v>
       </c>
       <c r="R9">
-        <v>26.51397226692866</v>
+        <v>247.865805871929</v>
       </c>
       <c r="S9">
-        <v>0.06016626282748781</v>
+        <v>0.0353238848145882</v>
       </c>
       <c r="T9">
-        <v>0.06016626282748781</v>
+        <v>0.03532388481458818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.69990924926599</v>
+        <v>4.741387</v>
       </c>
       <c r="H10">
-        <v>4.69990924926599</v>
+        <v>14.224161</v>
       </c>
       <c r="I10">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="J10">
-        <v>0.1089167116601631</v>
+        <v>0.107499183298105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.73741765826773</v>
+        <v>1.830756333333333</v>
       </c>
       <c r="N10">
-        <v>1.73741765826773</v>
+        <v>5.492269</v>
       </c>
       <c r="O10">
-        <v>0.1701286364644512</v>
+        <v>0.1035678918677447</v>
       </c>
       <c r="P10">
-        <v>0.1701286364644512</v>
+        <v>0.1035678918677447</v>
       </c>
       <c r="Q10">
-        <v>8.165705321930561</v>
+        <v>8.680324279034334</v>
       </c>
       <c r="R10">
-        <v>8.165705321930561</v>
+        <v>78.12291851130901</v>
       </c>
       <c r="S10">
-        <v>0.01852985164293534</v>
+        <v>0.01113346379168901</v>
       </c>
       <c r="T10">
-        <v>0.01852985164293534</v>
+        <v>0.01113346379168901</v>
       </c>
     </row>
   </sheetData>
